--- a/src/Tests/Tests.WorksheetName.verified.xlsx
+++ b/src/Tests/Tests.WorksheetName.verified.xlsx
@@ -8,7 +8,9 @@
   <x:sheets>
     <x:sheet name="Employee Report" sheetId="1" r:id="rId2"/>
   </x:sheets>
-  <x:definedNames/>
+  <x:definedNames>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Report'!$A$1:$H$5</x:definedName>
+  </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
@@ -466,12 +468,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.996339" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.282054" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="12.710625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="19.996339" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.996339" style="0" customWidth="1"/>
-    <x:col min="5" max="6" width="13.139196" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="8.282054" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.996339" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="10.567768" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="9.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -606,6 +609,7 @@
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:autoFilter ref="A1:H5"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/src/Tests/Tests.WorksheetName.verified.xlsx
+++ b/src/Tests/Tests.WorksheetName.verified.xlsx
@@ -9,7 +9,7 @@
     <x:sheet name="Employee Report" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
-    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Report'!$A$1:$H$5</x:definedName>
+    <x:definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Employee Report'!$A$1:$G$5</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
@@ -33,9 +33,6 @@
     <x:t>Annual Salary</x:t>
   </x:si>
   <x:si>
-    <x:t>Department</x:t>
-  </x:si>
-  <x:si>
     <x:t>Is Active</x:t>
   </x:si>
   <x:si>
@@ -51,9 +48,6 @@
     <x:t>john@company.com</x:t>
   </x:si>
   <x:si>
-    <x:t>IT</x:t>
-  </x:si>
-  <x:si>
     <x:t>True</x:t>
   </x:si>
   <x:si>
@@ -69,9 +63,6 @@
     <x:t>jane@company.com</x:t>
   </x:si>
   <x:si>
-    <x:t>Management</x:t>
-  </x:si>
-  <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
@@ -81,9 +72,6 @@
     <x:t>bob@company.com</x:t>
   </x:si>
   <x:si>
-    <x:t>Marketing</x:t>
-  </x:si>
-  <x:si>
     <x:t>False</x:t>
   </x:si>
   <x:si>
@@ -97,9 +85,6 @@
   </x:si>
   <x:si>
     <x:t>alice@company.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sales</x:t>
   </x:si>
   <x:si>
     <x:t>Contract</x:t>
@@ -460,7 +445,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H5"/>
+  <x:dimension ref="A1:G5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
@@ -473,12 +458,11 @@
     <x:col min="3" max="3" width="19.996339" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="11.424911" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.424911" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="13.996339" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="10.567768" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="9.424911" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.567768" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="9.424911" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:8">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -500,19 +484,16 @@
       <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:7">
+      <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:8">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="B2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
         <x:v>9</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="1">
         <x:v>43845</x:v>
@@ -521,24 +502,21 @@
         <x:v>75000</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+    </x:row>
+    <x:row r="3" spans="1:7">
+      <x:c r="A3" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>14</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>16</x:v>
       </x:c>
       <x:c r="D3" s="1">
         <x:v>43546</x:v>
@@ -547,24 +525,21 @@
         <x:v>120000</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:7">
+      <x:c r="A4" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:8">
-      <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="D4" s="1">
         <x:v>44387</x:v>
@@ -573,24 +548,21 @@
         <x:v>45000</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:7">
+      <x:c r="A5" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:8">
-      <x:c r="A5" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>26</x:v>
       </x:c>
       <x:c r="D5" s="1">
         <x:v>43409</x:v>
@@ -599,17 +571,14 @@
         <x:v>95000</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:autoFilter ref="A1:H5"/>
+  <x:autoFilter ref="A1:G5"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/src/Tests/Tests.WorksheetName.verified.xlsx
+++ b/src/Tests/Tests.WorksheetName.verified.xlsx
@@ -141,13 +141,17 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -486,94 +490,94 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="A2" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="C2" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D2" s="1">
+      <x:c r="D2" s="2">
         <x:v>43845</x:v>
       </x:c>
-      <x:c r="E2" s="0">
+      <x:c r="E2" s="1">
         <x:v>75000</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="F2" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="G2" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="B3" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C3" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D3" s="1">
+      <x:c r="D3" s="2">
         <x:v>43546</x:v>
       </x:c>
-      <x:c r="E3" s="0">
+      <x:c r="E3" s="1">
         <x:v>120000</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="F3" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="G3" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="A4" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B4" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="C4" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D4" s="1">
+      <x:c r="D4" s="2">
         <x:v>44387</x:v>
       </x:c>
-      <x:c r="E4" s="0">
+      <x:c r="E4" s="1">
         <x:v>45000</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="F4" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="G4" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="A5" s="0" t="s">
+      <x:c r="A5" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="B5" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
+      <x:c r="C5" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="D5" s="1">
+      <x:c r="D5" s="2">
         <x:v>43409</x:v>
       </x:c>
-      <x:c r="E5" s="0">
+      <x:c r="E5" s="1">
         <x:v>95000</x:v>
       </x:c>
-      <x:c r="F5" s="0" t="s">
+      <x:c r="F5" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G5" s="0" t="s">
+      <x:c r="G5" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
     </x:row>
